--- a/analytikI/priklad.xlsx
+++ b/analytikI/priklad.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Predaj" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,133 +424,71 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>MENO</t>
+          <t>Produkt</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>EMAIL</t>
+          <t>Cena</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Kusov</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Spolu (€)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Leanne Graham</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Sincere@april.biz</t>
-        </is>
+          <t>Chleba</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ervin Howell</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Shanna@melissa.tv</t>
-        </is>
+          <t>Mlieko</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Clementine Bauch</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Nathan@yesenia.net</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Patricia Lebsack</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Julianne.OConner@kory.org</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Chelsey Dietrich</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Lucio_Hettinger@annie.ca</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Mrs. Dennis Schulist</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Karley_Dach@jasper.info</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Kurtis Weissnat</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Telly.Hoeger@billy.biz</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Nicholas Runolfsdottir V</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Sherwood@rosamond.me</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Glenna Reichert</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Chaim_McDermott@dana.io</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Clementina DuBuque</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Rey.Padberg@karina.biz</t>
-        </is>
+          <t>Maslo</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.5</v>
       </c>
     </row>
   </sheetData>
